--- a/biology/Histoire de la zoologie et de la botanique/Scott_D._Sundberg/Scott_D._Sundberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Scott_D._Sundberg/Scott_D._Sundberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scott D. Sundberg est un botaniste américain, né en 1954 et mort le 30 décembre 2004 à Corvallis dans l'Oregon d’un cancer du poumon.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce passionné par les plantes de l’Oregon commence à travailler comme botaniste pour le bureau d’aménagement du territoire à Coos Bay District de 1978 à 1980. Il obtient son Ph. D. en 1986 à l’université du Texas à Austin. Il se consacre alors à la taxinomie de la famille des compositae. Après quelques années passées dans l’Ohio et à Seattle, il retourne à l’université de l’Oregon et travaille également pour l’herbier de l’État.
 En 1994, il initie un programme pour la réalisation d’une nouvelle flore pour l’Oregon auquel participent une soixantaine d’étudiants et plus de 230 volontaires. Il est l’auteur de 29 publications scientifiques.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique parue dans Plant Science Bulletin, 51 (2) - Summer 2005 (en anglais)</t>
         </is>
